--- a/raporty/raport_finansowy_2024.xlsx
+++ b/raporty/raport_finansowy_2024.xlsx
@@ -28,15 +28,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Szkola Podstawowa nr 4 w Racibo" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zespol Szkolno Przedszkolny nr " sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zespol Zlobkow w Raciborzu" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wzory" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pivot_typ" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pivot_placowka" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykresy" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pivot_placowka" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykresy" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Zbiorcze_porownanie'!$A$1:$R$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Pivot_typ'!$A$1:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'Pivot_placowka'!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Pivot_placowka'!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -83,19 +80,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -889,1410 +883,1442 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>placowka</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>typ</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>przychody_netto</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>dotacje_podstawowe</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>przychody_budzetowe</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>koszty_operacyjne</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>amortyzacja</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>materialy_i_energia</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>uslugi_obce</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>podatki_i_oplaty</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>wynagrodzenia</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ubezpieczenia_i_swiadczenia</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>pozostale_koszty_rodzajowe</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>pozostale_przychody_operacyjne</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>pozostale_koszty_operacyjne</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>zysk_strata_netto</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>liczba_uczniow</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>koszt_na_ucznia</t>
-        </is>
-      </c>
-      <c r="Q1" s="5" t="inlineStr">
-        <is>
-          <t>liczba_uczniow</t>
-        </is>
-      </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>typ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 15 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>539972.02</v>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n">
-        <v>539972.02</v>
-      </c>
+          <t>Przedszkole nr 10 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>298699.32</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="n">
-        <v>12862138.77</v>
+        <v>298699.32</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>259772.71</v>
+        <v>3647268.11</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>1464592.1</v>
+        <v>36766.42</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>586976.9</v>
+        <v>330065.06</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>36437.6</v>
+        <v>83169.85000000001</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>8369697.64</v>
+        <v>6475.2</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>2124810.82</v>
+        <v>2550432.62</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>19851</v>
+        <v>640049.01</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>95315.61</v>
+        <v>309.95</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>7227.48</v>
+        <v>4254.82</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>-12232965.84</v>
-      </c>
-      <c r="P2" s="3">
-        <f>IFERROR(E2/Q2, "")</f>
+        <v>670.58</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>-3345839.55</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="R2" s="3">
+        <f>IFERROR(F2/Q2, "")</f>
         <v/>
-      </c>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 1 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>317382</v>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n">
-        <v>317382</v>
-      </c>
+          <t>Przedszkole nr 11 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>301349.94</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="n">
-        <v>12460253.95</v>
+        <v>301349.94</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>354778.96</v>
+        <v>3623509.84</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1704663.86</v>
+        <v>52464.83</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>213698.53</v>
+        <v>386638.58</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>24918.6</v>
+        <v>79908.82000000001</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>8140490.96</v>
+        <v>8809.200000000001</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>2018998.11</v>
+        <v>2496125.54</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>2704.93</v>
+        <v>598655.3100000001</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>116864.96</v>
+        <v>907.5599999999999</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>8761.01</v>
+        <v>2090</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>-12034698.52</v>
-      </c>
-      <c r="P3" s="3">
-        <f>IFERROR(E3/Q3, "")</f>
+        <v>527.52</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>-3320479.42</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="R3" s="3">
+        <f>IFERROR(F3/Q3, "")</f>
         <v/>
-      </c>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 18 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>277778.94</v>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n">
-        <v>277778.94</v>
-      </c>
+          <t>Przedszkole nr 12 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>188057.3</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="n">
-        <v>10349275.55</v>
+        <v>188057.3</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>264009.27</v>
+        <v>2202990.6</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>971058.03</v>
+        <v>16743.04</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>157650.66</v>
+        <v>221847.82</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>28675.2</v>
+        <v>55335.74</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>7194455.74</v>
+        <v>7408.8</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>1730411.02</v>
+        <v>1522144.43</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>3015.63</v>
+        <v>379200.82</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>103939.36</v>
+        <v>309.95</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>5782.16</v>
+        <v>1197.13</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>-9971914.02</v>
-      </c>
-      <c r="P4" s="3">
-        <f>IFERROR(E4/Q4, "")</f>
+        <v>1443.21</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>-2015172.38</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="R4" s="3">
+        <f>IFERROR(F4/Q4, "")</f>
         <v/>
-      </c>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 13 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>271911</v>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n">
-        <v>271911</v>
-      </c>
+          <t>Przedszkole nr 13 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>294225.22</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="n">
-        <v>8463280.199999999</v>
+        <v>294225.22</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>156887.47</v>
+        <v>3339072.16</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>877922.96</v>
+        <v>116888.64</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>130856.63</v>
+        <v>297577.85</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>13762</v>
+        <v>54178.25</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>5802368.24</v>
+        <v>6073.8</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>1481080.21</v>
+        <v>2301844.45</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>402.69</v>
+        <v>561515.12</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>9158.469999999999</v>
+        <v>994.05</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>3396.61</v>
+        <v>1518</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>-8185250.57</v>
-      </c>
-      <c r="P5" s="3">
-        <f>IFERROR(E5/Q5, "")</f>
+        <v>309.05</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>-3043525.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="R5" s="3">
+        <f>IFERROR(F5/Q5, "")</f>
         <v/>
-      </c>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 4 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>176109</v>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n">
-        <v>176109</v>
-      </c>
+          <t>Przedszkole nr 14 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>186896.82</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="n">
-        <v>6985396.73</v>
+        <v>186896.82</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>222690.35</v>
+        <v>2327795.89</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>494503.64</v>
+        <v>47327.9</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>255231.78</v>
+        <v>262338.92</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>18158.2</v>
+        <v>44934.78</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>4742141.96</v>
+        <v>5641.8</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>1251857.72</v>
+        <v>1560553.87</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>813.08</v>
+        <v>406302.27</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>229019.59</v>
+        <v>696.35</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>1007.84</v>
+        <v>1576</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>-6581061.54</v>
-      </c>
-      <c r="P6" s="3">
-        <f>IFERROR(E6/Q6, "")</f>
+        <v>1044.34</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>-2140546.14</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="R6" s="3">
+        <f>IFERROR(F6/Q6, "")</f>
         <v/>
-      </c>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zespol Szkolno Przedszkolny nr 1 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>368951.18</v>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n">
-        <v>368951.18</v>
-      </c>
+          <t>Przedszkole nr 15 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>187329.36</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="n">
-        <v>6107925.66</v>
+        <v>187329.36</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>379602.54</v>
+        <v>2207833.55</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>591957.5</v>
+        <v>52514.48</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>183987.17</v>
+        <v>244411.62</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>12415</v>
+        <v>44345.87</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>3959188.68</v>
+        <v>3937.2</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>979983.62</v>
+        <v>1504155.5</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>791.15</v>
+        <v>357303.95</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>182393.97</v>
+        <v>1164.93</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>759.92</v>
+        <v>285</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>-5557065.38</v>
-      </c>
-      <c r="P7" s="3">
-        <f>IFERROR(E7/Q7, "")</f>
+        <v>1502.56</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>-2021683.75</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="R7" s="3">
+        <f>IFERROR(F7/Q7, "")</f>
         <v/>
-      </c>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Zespol szkolno-przedszkolny</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zespol Szkolno Przedszkolny nr 2 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>289311.14</v>
-      </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n">
-        <v>289311.14</v>
-      </c>
+          <t>Przedszkole nr 16 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>132303.6</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="n">
-        <v>5876961.46</v>
+        <v>132303.6</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>131449.73</v>
+        <v>1750703.05</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>541479.5</v>
+        <v>26772.28</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>107910.57</v>
+        <v>211414.77</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>6530.2</v>
+        <v>47335.29</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>4049646.71</v>
+        <v>3559.08</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>1038614.16</v>
+        <v>1163482.75</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1330.59</v>
+        <v>296921.38</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>14597.49</v>
+        <v>1217.5</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>1015.47</v>
+        <v>8831.34</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>-5574022.86</v>
-      </c>
-      <c r="P8" s="3">
-        <f>IFERROR(E8/Q8, "")</f>
+        <v>736.4299999999999</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>-1610304.54</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="R8" s="3">
+        <f>IFERROR(F8/Q8, "")</f>
         <v/>
-      </c>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Zespol szkolno-przedszkolny</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zespol Zlobkow w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1809134.5</v>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n">
-        <v>1809134.5</v>
-      </c>
+          <t>Przedszkole nr 20 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>148969.28</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="n">
-        <v>4886957.24</v>
+        <v>148969.28</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>182841.14</v>
+        <v>2075995.51</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>824191.55</v>
+        <v>21738.54</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>105407.49</v>
+        <v>220022.83</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>13344.48</v>
+        <v>60211.2</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>3024050.85</v>
+        <v>7132.8</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>736470.8100000001</v>
+        <v>1398218.44</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>650.92</v>
+        <v>360791.8</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>55724.01</v>
+        <v>7879.9</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>143.33</v>
+        <v>249</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>-3021185.92</v>
-      </c>
-      <c r="P9" s="3">
-        <f>IFERROR(E9/Q9, "")</f>
+        <v>498.25</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>-1927183.48</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="R9" s="3">
+        <f>IFERROR(F9/Q9, "")</f>
         <v/>
-      </c>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Zlobek / Zespol Zlobkow</t>
-        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zespol Szkolno Przedszkolny nr 4 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>209581.34</v>
-      </c>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n">
-        <v>209581.34</v>
-      </c>
+          <t>Przedszkole nr 23 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>199153.14</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="n">
-        <v>4677800.64</v>
+        <v>199153.14</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>70626.37</v>
+        <v>2368168.23</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>448776.31</v>
+        <v>68857.14</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>118342.39</v>
+        <v>266309.68</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>7444.8</v>
+        <v>59957.78</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>3191173.33</v>
+        <v>6475.2</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>839437.4399999999</v>
+        <v>1582280.24</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>2000</v>
+        <v>383330.29</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>20647.47</v>
+        <v>957.9</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>335.37</v>
+        <v>2782</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>-4447496.23</v>
-      </c>
-      <c r="P10" s="3">
-        <f>IFERROR(E10/Q10, "")</f>
+        <v>838.0599999999999</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>-2166656.15</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="R10" s="3">
+        <f>IFERROR(F10/Q10, "")</f>
         <v/>
-      </c>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Zespol szkolno-przedszkolny</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zespol Szkolno Przedszkolny nr 3 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>189679.56</v>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n">
-        <v>189679.56</v>
-      </c>
+          <t>Przedszkole nr 24 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>137901.64</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="n">
-        <v>4293927.43</v>
+        <v>137901.64</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>122905.84</v>
+        <v>3214310.64</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>312972.85</v>
+        <v>70176.07000000001</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>91397</v>
+        <v>256883.69</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>7299.3</v>
+        <v>112994.25</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>3011421.07</v>
+        <v>6756</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>745173.02</v>
+        <v>2243768.71</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>2758.35</v>
+        <v>522971.72</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>10513.75</v>
+        <v>760.2</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>844.89</v>
+        <v>95876.53</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>-4094190.46</v>
-      </c>
-      <c r="P11" s="3">
-        <f>IFERROR(E11/Q11, "")</f>
+        <v>997.22</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>-2981529.69</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="R11" s="3">
+        <f>IFERROR(F11/Q11, "")</f>
         <v/>
-      </c>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Zespol szkolno-przedszkolny</t>
-        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Szkola Podstawowa nr 3 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>87240</v>
-      </c>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n">
-        <v>87240</v>
-      </c>
+          <t>Przedszkole nr 26 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>238837.38</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="n">
-        <v>4050298.53</v>
+        <v>238837.38</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>92908.8</v>
+        <v>2665700.63</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>179547.02</v>
+        <v>43140.21</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>79812.77</v>
+        <v>295766.87</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>7301.8</v>
+        <v>78381.75999999999</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>2953413.31</v>
+        <v>5104.8</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>736116.24</v>
+        <v>1822108.53</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1198.59</v>
+        <v>419321.81</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>3852</v>
+        <v>1876.65</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>889.0700000000001</v>
+        <v>1885</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>-3959982.23</v>
-      </c>
-      <c r="P12" s="3">
-        <f>IFERROR(E12/Q12, "")</f>
+        <v>74.15000000000001</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>-2424896.4</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="R12" s="3">
+        <f>IFERROR(F12/Q12, "")</f>
         <v/>
-      </c>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Przedszkole nr 10 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>298699.32</v>
-      </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n">
-        <v>298699.32</v>
-      </c>
+          <t>Przedszkole nr 3 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Przedszkole</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>190708.7</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="n">
-        <v>3647268.11</v>
+        <v>190708.7</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>36766.42</v>
+        <v>2409719.22</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>330065.06</v>
+        <v>41925.69</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>83169.85000000001</v>
+        <v>213843.53</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>6475.2</v>
+        <v>93078.00999999999</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>2550432.62</v>
+        <v>7040.56</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>640049.01</v>
+        <v>1645878.59</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>309.95</v>
+        <v>407952.84</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>4254.82</v>
+        <v>631.4400000000001</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>670.58</v>
+        <v>6643.08</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>-3345839.55</v>
-      </c>
-      <c r="P13" s="3">
-        <f>IFERROR(E13/Q13, "")</f>
+        <v>1060.21</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>-2213496.65</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="R13" s="3">
+        <f>IFERROR(F13/Q13, "")</f>
         <v/>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Przedszkole nr 11 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>301349.94</v>
-      </c>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n">
-        <v>301349.94</v>
-      </c>
+          <t>Szkola Podstawowa nr 1 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>317382</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="n">
-        <v>3623509.84</v>
+        <v>317382</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>52464.83</v>
+        <v>12460253.95</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>386638.58</v>
+        <v>354778.96</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>79908.82000000001</v>
+        <v>1704663.86</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>8809.200000000001</v>
+        <v>213698.53</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>2496125.54</v>
+        <v>24918.6</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>598655.3100000001</v>
+        <v>8140490.96</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>907.5599999999999</v>
+        <v>2018998.11</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2090</v>
+        <v>2704.93</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>527.52</v>
+        <v>116864.96</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>-3320479.42</v>
-      </c>
-      <c r="P14" s="3">
-        <f>IFERROR(E14/Q14, "")</f>
+        <v>8761.01</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>-12034698.52</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>489</v>
+      </c>
+      <c r="R14" s="3">
+        <f>IFERROR(F14/Q14, "")</f>
         <v/>
-      </c>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Przedszkole nr 13 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>294225.22</v>
-      </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n">
-        <v>294225.22</v>
-      </c>
+          <t>Szkola Podstawowa nr 13 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>271911</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="n">
-        <v>3339072.16</v>
+        <v>271911</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>116888.64</v>
+        <v>8463280.199999999</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>297577.85</v>
+        <v>156887.47</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>54178.25</v>
+        <v>877922.96</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>6073.8</v>
+        <v>130856.63</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>2301844.45</v>
+        <v>13762</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>561515.12</v>
+        <v>5802368.24</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>994.05</v>
+        <v>1481080.21</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1518</v>
+        <v>402.69</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>309.05</v>
+        <v>9158.469999999999</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>-3043525.99</v>
-      </c>
-      <c r="P15" s="3">
-        <f>IFERROR(E15/Q15, "")</f>
+        <v>3396.61</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>-8185250.57</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>447</v>
+      </c>
+      <c r="R15" s="3">
+        <f>IFERROR(F15/Q15, "")</f>
         <v/>
-      </c>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Przedszkole nr 24 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>137901.64</v>
-      </c>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n">
-        <v>137901.64</v>
-      </c>
+          <t>Szkola Podstawowa nr 15 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>539972.02</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="n">
-        <v>3214310.64</v>
+        <v>539972.02</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>70176.07000000001</v>
+        <v>12862138.77</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>256883.69</v>
+        <v>259772.71</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>112994.25</v>
+        <v>1464592.1</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>6756</v>
+        <v>586976.9</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>2243768.71</v>
+        <v>36437.6</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>522971.72</v>
+        <v>8369697.64</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>760.2</v>
+        <v>2124810.82</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>95876.53</v>
+        <v>19851</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>997.22</v>
+        <v>95315.61</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>-2981529.69</v>
-      </c>
-      <c r="P16" s="3">
-        <f>IFERROR(E16/Q16, "")</f>
+        <v>7227.48</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>-12232965.84</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>667</v>
+      </c>
+      <c r="R16" s="3">
+        <f>IFERROR(F16/Q16, "")</f>
         <v/>
-      </c>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Przedszkole nr 26 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>238837.38</v>
-      </c>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n">
-        <v>238837.38</v>
-      </c>
+          <t>Szkola Podstawowa nr 18 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>277778.94</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="n">
-        <v>2665700.63</v>
+        <v>277778.94</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>43140.21</v>
+        <v>10349275.55</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>295766.87</v>
+        <v>264009.27</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>78381.75999999999</v>
+        <v>971058.03</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>5104.8</v>
+        <v>157650.66</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>1822108.53</v>
+        <v>28675.2</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>419321.81</v>
+        <v>7194455.74</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1876.65</v>
+        <v>1730411.02</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1885</v>
+        <v>3015.63</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>74.15000000000001</v>
+        <v>103939.36</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>-2424896.4</v>
-      </c>
-      <c r="P17" s="3">
-        <f>IFERROR(E17/Q17, "")</f>
+        <v>5782.16</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>-9971914.02</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>587</v>
+      </c>
+      <c r="R17" s="3">
+        <f>IFERROR(F17/Q17, "")</f>
         <v/>
-      </c>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Przedszkole nr 3 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>190708.7</v>
-      </c>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n">
-        <v>190708.7</v>
-      </c>
+          <t>Szkola Podstawowa nr 3 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>87240</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="n">
-        <v>2409719.22</v>
+        <v>87240</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>41925.69</v>
+        <v>4050298.53</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>213843.53</v>
+        <v>92908.8</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>93078.00999999999</v>
+        <v>179547.02</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>7040.56</v>
+        <v>79812.77</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>1645878.59</v>
+        <v>7301.8</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>407952.84</v>
+        <v>2953413.31</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>631.4400000000001</v>
+        <v>736116.24</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>6643.08</v>
+        <v>1198.59</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>1060.21</v>
+        <v>3852</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>-2213496.65</v>
-      </c>
-      <c r="P18" s="3">
-        <f>IFERROR(E18/Q18, "")</f>
+        <v>889.0700000000001</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>-3959982.23</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="R18" s="3">
+        <f>IFERROR(F18/Q18, "")</f>
         <v/>
-      </c>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Przedszkole nr 23 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>199153.14</v>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n">
-        <v>199153.14</v>
-      </c>
+          <t>Szkola Podstawowa nr 4 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Szkola podstawowa</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>176109</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="n">
-        <v>2368168.23</v>
+        <v>176109</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>68857.14</v>
+        <v>6985396.73</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>266309.68</v>
+        <v>222690.35</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>59957.78</v>
+        <v>494503.64</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>6475.2</v>
+        <v>255231.78</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>1582280.24</v>
+        <v>18158.2</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>383330.29</v>
+        <v>4742141.96</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>957.9</v>
+        <v>1251857.72</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>2782</v>
+        <v>813.08</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>838.0599999999999</v>
+        <v>229019.59</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>-2166656.15</v>
-      </c>
-      <c r="P19" s="3">
-        <f>IFERROR(E19/Q19, "")</f>
+        <v>1007.84</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>-6581061.54</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>360</v>
+      </c>
+      <c r="R19" s="3">
+        <f>IFERROR(F19/Q19, "")</f>
         <v/>
-      </c>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Przedszkole nr 14 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>186896.82</v>
-      </c>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n">
-        <v>186896.82</v>
-      </c>
+          <t>Zespol Szkolno Przedszkolny nr 1 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zespol szkolno-przedszkolny</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>368951.18</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="n">
-        <v>2327795.89</v>
+        <v>368951.18</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>47327.9</v>
+        <v>6107925.66</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>262338.92</v>
+        <v>379602.54</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>44934.78</v>
+        <v>591957.5</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>5641.8</v>
+        <v>183987.17</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>1560553.87</v>
+        <v>12415</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>406302.27</v>
+        <v>3959188.68</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>696.35</v>
+        <v>979983.62</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>1576</v>
+        <v>791.15</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>1044.34</v>
+        <v>182393.97</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>-2140546.14</v>
-      </c>
-      <c r="P20" s="3">
-        <f>IFERROR(E20/Q20, "")</f>
+        <v>759.92</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>-5557065.38</v>
+      </c>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="3">
+        <f>IFERROR(F20/Q20, "")</f>
         <v/>
-      </c>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Przedszkole nr 15 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>187329.36</v>
-      </c>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n">
-        <v>187329.36</v>
-      </c>
+          <t>Zespol Szkolno Przedszkolny nr 2 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Zespol szkolno-przedszkolny</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>289311.14</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="n">
-        <v>2207833.55</v>
+        <v>289311.14</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>52514.48</v>
+        <v>5876961.46</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>244411.62</v>
+        <v>131449.73</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44345.87</v>
+        <v>541479.5</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>3937.2</v>
+        <v>107910.57</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>1504155.5</v>
+        <v>6530.2</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>357303.95</v>
+        <v>4049646.71</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1164.93</v>
+        <v>1038614.16</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>285</v>
+        <v>1330.59</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>1502.56</v>
+        <v>14597.49</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>-2021683.75</v>
-      </c>
-      <c r="P21" s="3">
-        <f>IFERROR(E21/Q21, "")</f>
+        <v>1015.47</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>-5574022.86</v>
+      </c>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="3">
+        <f>IFERROR(F21/Q21, "")</f>
         <v/>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Przedszkole nr 12 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>188057.3</v>
-      </c>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n">
-        <v>188057.3</v>
-      </c>
+          <t>Zespol Szkolno Przedszkolny nr 3 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Zespol szkolno-przedszkolny</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>189679.56</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="n">
-        <v>2202990.6</v>
+        <v>189679.56</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>16743.04</v>
+        <v>4293927.43</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>221847.82</v>
+        <v>122905.84</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>55335.74</v>
+        <v>312972.85</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>7408.8</v>
+        <v>91397</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>1522144.43</v>
+        <v>7299.3</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>379200.82</v>
+        <v>3011421.07</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>309.95</v>
+        <v>745173.02</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>1197.13</v>
+        <v>2758.35</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>1443.21</v>
+        <v>10513.75</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>-2015172.38</v>
-      </c>
-      <c r="P22" s="3">
-        <f>IFERROR(E22/Q22, "")</f>
+        <v>844.89</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>-4094190.46</v>
+      </c>
+      <c r="Q22" s="4" t="inlineStr"/>
+      <c r="R22" s="3">
+        <f>IFERROR(F22/Q22, "")</f>
         <v/>
-      </c>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Przedszkole nr 20 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>148969.28</v>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n">
-        <v>148969.28</v>
-      </c>
+          <t>Zespol Szkolno Przedszkolny nr 4 w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Zespol szkolno-przedszkolny</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>209581.34</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="n">
-        <v>2075995.51</v>
+        <v>209581.34</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>21738.54</v>
+        <v>4677800.64</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>220022.83</v>
+        <v>70626.37</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>60211.2</v>
+        <v>448776.31</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>7132.8</v>
+        <v>118342.39</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>1398218.44</v>
+        <v>7444.8</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>360791.8</v>
+        <v>3191173.33</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>7879.9</v>
+        <v>839437.4399999999</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>249</v>
+        <v>2000</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>498.25</v>
+        <v>20647.47</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>-1927183.48</v>
-      </c>
-      <c r="P23" s="3">
-        <f>IFERROR(E23/Q23, "")</f>
+        <v>335.37</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>-4447496.23</v>
+      </c>
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="3">
+        <f>IFERROR(F23/Q23, "")</f>
         <v/>
-      </c>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Przedszkole nr 16 w Raciborzu</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>132303.6</v>
-      </c>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n">
-        <v>132303.6</v>
-      </c>
+          <t>Zespol Zlobkow w Raciborzu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Zlobek / Zespol Zlobkow</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1809134.5</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="n">
-        <v>1750703.05</v>
+        <v>1809134.5</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>26772.28</v>
+        <v>4886957.24</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>211414.77</v>
+        <v>182841.14</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>47335.29</v>
+        <v>824191.55</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>3559.08</v>
+        <v>105407.49</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>1163482.75</v>
+        <v>13344.48</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>296921.38</v>
+        <v>3024050.85</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1217.5</v>
+        <v>736470.8100000001</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>8831.34</v>
+        <v>650.92</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>736.4299999999999</v>
+        <v>55724.01</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>-1610304.54</v>
-      </c>
-      <c r="P24" s="3">
-        <f>IFERROR(E24/Q24, "")</f>
+        <v>143.33</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>-3021185.92</v>
+      </c>
+      <c r="Q24" s="4" t="inlineStr"/>
+      <c r="R24" s="3">
+        <f>IFERROR(F24/Q24, "")</f>
         <v/>
-      </c>
-      <c r="Q24" s="4" t="n"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Przedszkole</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -8101,71 +8127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="61" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>placowka</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>koszty_operacyjne</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>liczba_uczniow</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>koszt_na_ucznia (formuła: koszty_operacyjne/liczba_uczniow)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PRZYKLAD</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <f>IFERROR(B2/C2, "")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8176,7 +8138,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>typ</t>
+          <t>placowka</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -8203,117 +8165,6 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Przedszkole</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>31833067.43</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>-29211314.14</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>250</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>127332.26972</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Szkola podstawowa</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>55170643.73</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-52965872.72</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Zespol szkolno-przedszkolny</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>20956615.19</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>-19672774.93</v>
-      </c>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Zlobek / Zespol Zlobkow</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>4886957.24</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>-3021185.92</v>
-      </c>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E5"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>placowka</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>koszty_operacyjne</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>zysk_strata_netto</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>liczba_uczniow</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>koszt_na_ucznia</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
           <t>Szkola Podstawowa nr 15 w Raciborzu</t>
         </is>
       </c>
@@ -8323,7 +8174,9 @@
       <c r="C2" s="3" t="n">
         <v>-12232965.84</v>
       </c>
-      <c r="D2" s="4" t="n"/>
+      <c r="D2" s="4" t="n">
+        <v>667</v>
+      </c>
       <c r="E2" s="3">
         <f>IFERROR(B2/D2, "")</f>
         <v/>
@@ -8341,7 +8194,9 @@
       <c r="C3" s="3" t="n">
         <v>-12034698.52</v>
       </c>
-      <c r="D3" s="4" t="n"/>
+      <c r="D3" s="4" t="n">
+        <v>489</v>
+      </c>
       <c r="E3" s="3">
         <f>IFERROR(B3/D3, "")</f>
         <v/>
@@ -8359,7 +8214,9 @@
       <c r="C4" s="3" t="n">
         <v>-9971914.02</v>
       </c>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="4" t="n">
+        <v>587</v>
+      </c>
       <c r="E4" s="3">
         <f>IFERROR(B4/D4, "")</f>
         <v/>
@@ -8377,7 +8234,9 @@
       <c r="C5" s="3" t="n">
         <v>-8185250.57</v>
       </c>
-      <c r="D5" s="4" t="n"/>
+      <c r="D5" s="4" t="n">
+        <v>447</v>
+      </c>
       <c r="E5" s="3">
         <f>IFERROR(B5/D5, "")</f>
         <v/>
@@ -8395,7 +8254,9 @@
       <c r="C6" s="3" t="n">
         <v>-6581061.54</v>
       </c>
-      <c r="D6" s="4" t="n"/>
+      <c r="D6" s="4" t="n">
+        <v>360</v>
+      </c>
       <c r="E6" s="3">
         <f>IFERROR(B6/D6, "")</f>
         <v/>
@@ -8503,7 +8364,9 @@
       <c r="C12" s="3" t="n">
         <v>-3959982.23</v>
       </c>
-      <c r="D12" s="4" t="n"/>
+      <c r="D12" s="4" t="n">
+        <v>214</v>
+      </c>
       <c r="E12" s="3">
         <f>IFERROR(B12/D12, "")</f>
         <v/>
@@ -8522,7 +8385,7 @@
         <v>-3345839.55</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(B13/D13, "")</f>
@@ -8541,7 +8404,9 @@
       <c r="C14" s="3" t="n">
         <v>-3320479.42</v>
       </c>
-      <c r="D14" s="4" t="n"/>
+      <c r="D14" s="4" t="n">
+        <v>160</v>
+      </c>
       <c r="E14" s="3">
         <f>IFERROR(B14/D14, "")</f>
         <v/>
@@ -8559,7 +8424,9 @@
       <c r="C15" s="3" t="n">
         <v>-3043525.99</v>
       </c>
-      <c r="D15" s="4" t="n"/>
+      <c r="D15" s="4" t="n">
+        <v>157</v>
+      </c>
       <c r="E15" s="3">
         <f>IFERROR(B15/D15, "")</f>
         <v/>
@@ -8577,7 +8444,9 @@
       <c r="C16" s="3" t="n">
         <v>-2981529.69</v>
       </c>
-      <c r="D16" s="4" t="n"/>
+      <c r="D16" s="4" t="n">
+        <v>75</v>
+      </c>
       <c r="E16" s="3">
         <f>IFERROR(B16/D16, "")</f>
         <v/>
@@ -8595,7 +8464,9 @@
       <c r="C17" s="3" t="n">
         <v>-2424896.4</v>
       </c>
-      <c r="D17" s="4" t="n"/>
+      <c r="D17" s="4" t="n">
+        <v>116</v>
+      </c>
       <c r="E17" s="3">
         <f>IFERROR(B17/D17, "")</f>
         <v/>
@@ -8613,7 +8484,9 @@
       <c r="C18" s="3" t="n">
         <v>-2213496.65</v>
       </c>
-      <c r="D18" s="4" t="n"/>
+      <c r="D18" s="4" t="n">
+        <v>96</v>
+      </c>
       <c r="E18" s="3">
         <f>IFERROR(B18/D18, "")</f>
         <v/>
@@ -8631,7 +8504,9 @@
       <c r="C19" s="3" t="n">
         <v>-2166656.15</v>
       </c>
-      <c r="D19" s="4" t="n"/>
+      <c r="D19" s="4" t="n">
+        <v>101</v>
+      </c>
       <c r="E19" s="3">
         <f>IFERROR(B19/D19, "")</f>
         <v/>
@@ -8649,7 +8524,9 @@
       <c r="C20" s="3" t="n">
         <v>-2140546.14</v>
       </c>
-      <c r="D20" s="4" t="n"/>
+      <c r="D20" s="4" t="n">
+        <v>96</v>
+      </c>
       <c r="E20" s="3">
         <f>IFERROR(B20/D20, "")</f>
         <v/>
@@ -8668,7 +8545,7 @@
         <v>-2021683.75</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3">
         <f>IFERROR(B21/D21, "")</f>
@@ -8687,7 +8564,9 @@
       <c r="C22" s="3" t="n">
         <v>-2015172.38</v>
       </c>
-      <c r="D22" s="4" t="n"/>
+      <c r="D22" s="4" t="n">
+        <v>95</v>
+      </c>
       <c r="E22" s="3">
         <f>IFERROR(B22/D22, "")</f>
         <v/>
@@ -8705,7 +8584,9 @@
       <c r="C23" s="3" t="n">
         <v>-1927183.48</v>
       </c>
-      <c r="D23" s="4" t="n"/>
+      <c r="D23" s="4" t="n">
+        <v>61</v>
+      </c>
       <c r="E23" s="3">
         <f>IFERROR(B23/D23, "")</f>
         <v/>
@@ -8723,7 +8604,9 @@
       <c r="C24" s="3" t="n">
         <v>-1610304.54</v>
       </c>
-      <c r="D24" s="4" t="n"/>
+      <c r="D24" s="4" t="n">
+        <v>73</v>
+      </c>
       <c r="E24" s="3">
         <f>IFERROR(B24/D24, "")</f>
         <v/>
@@ -8735,7 +8618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
